--- a/pipelines/ResultadosImprovisacion/Comparaciones/ComparacionFinal.xlsx
+++ b/pipelines/ResultadosImprovisacion/Comparaciones/ComparacionFinal.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germanm\Documents\Maestria Computación\TesisMaestria\pipelines\ResultadosImprovisacion\Comparaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF4C816-AD7F-4871-8C51-478A31137FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB20FD-35F8-4A54-8291-FBF39AD1943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="780" windowWidth="19905" windowHeight="10410" xr2:uid="{AA8BFBBF-6401-4E42-B7D3-C6779C20F9F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AA8BFBBF-6401-4E42-B7D3-C6779C20F9F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="COPIA" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="223">
   <si>
     <t>M0</t>
   </si>
@@ -716,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,8 +757,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,8 +802,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -818,11 +844,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -879,6 +914,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,7 +954,1174 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30055927384076997"/>
+                  <c:y val="-3.0452755905511809E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>COPIA!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5983.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6664.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5302.3299999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5339.5299999999897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5720.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6197.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002.3299999999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6404.6499999999896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5488.3699999999899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4862.78999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1871.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3813.9499999999898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2072.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4744.1899999999896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5651.1599999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5308.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2604.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5839.5299999999897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5469.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7532.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4343.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3627.9099999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3720.9299999999898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6325.5799999999899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4081.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6613.9499999999898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3906.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2637.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5767.4399999999896</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3813.9499999999898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5860.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4651.1599999999899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4958.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4988.3699999999899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4290.6999999999898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3377.9099999999899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4279.0699999999897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5339.5299999999897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5018.6000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>COPIA!$O$2:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5763.8949999999904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6406.4099999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5586.5263999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5340.5583999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5581.5834999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6318.8166999999903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2909.2190999999898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6608.1653999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5672.3033999999898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5082.7786999999898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2664.1696000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4313.9525999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2820.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4644.9980999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5270.8361999999897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3979.4177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3996.4530999999902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5956.2730999999903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4383.1268</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6971.2614999999896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3931.4582999999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4147.3023999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3883.9539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3723.9531000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6052.3594999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4101.5811999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6344.0928999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3599.3085999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3398.6599000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5373.6280999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4878.8353999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5820.1148999999896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4767.0959999999905</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5192.8020999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4633.3273999999901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3973.4161999999901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4017.80349999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4050.2899000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5065.5105999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4353.1985000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02F6-4290-9EE6-1C6814F2F800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261280192"/>
+        <c:axId val="261282112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261280192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261282112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261282112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261280192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>564696</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>187776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1016CD1-33A4-8823-966D-95713EA46BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1162,10 +2387,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>292996</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>60894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90465A43-B727-2FC8-A7F7-EB4A93D28B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13652500" y="8175625"/>
+          <a:ext cx="6420746" cy="4077269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02197EB8-D03B-9CC4-0842-76785793D636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20208875" y="8191500"/>
+          <a:ext cx="6506483" cy="4420217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>578879</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>140302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70494B36-CCD7-01CB-C190-E4C7B5A9A29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26860500" y="8207375"/>
+          <a:ext cx="7373379" cy="4315427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1574,11 +2931,2202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7A1D5-7509-4E52-BB91-606CCCCF6919}">
+  <dimension ref="A1:Y41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="13"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="R1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6330.9061903686097</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4639.5710046315198</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7931.1122036571496</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5983.72</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5763.8949999999904</v>
+      </c>
+      <c r="R2" s="1">
+        <f>A2</f>
+        <v>6330.9061903686097</v>
+      </c>
+      <c r="T2" s="1">
+        <f>A2</f>
+        <v>6330.9061903686097</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8895.1427797874603</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6318.4389068741002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7396.71847819305</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6664.88</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="29">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6406.4099999999899</v>
+      </c>
+      <c r="R3" s="1">
+        <f>B3</f>
+        <v>6318.4389068741002</v>
+      </c>
+      <c r="T3" s="1">
+        <f>B3</f>
+        <v>6318.4389068741002</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5441.1171673525796</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6141.0907001838996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5973.6632162160204</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5302.3299999999899</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="29">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5586.5263999999997</v>
+      </c>
+      <c r="R4" s="1">
+        <f>A4</f>
+        <v>5441.1171673525796</v>
+      </c>
+      <c r="T4" s="1">
+        <f>A4</f>
+        <v>5441.1171673525796</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4891.5961116284097</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5404.9311849320402</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5650.3333078247797</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5339.5299999999897</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="29">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5340.5583999999999</v>
+      </c>
+      <c r="R5" s="1">
+        <f>B5</f>
+        <v>5404.9311849320402</v>
+      </c>
+      <c r="T5" s="1">
+        <f>B5</f>
+        <v>5404.9311849320402</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4646.8926246969704</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6569.2229084712799</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3934.26657390843</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5720.93</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5581.5834999999997</v>
+      </c>
+      <c r="R6" s="1">
+        <f>B6</f>
+        <v>6569.2229084712799</v>
+      </c>
+      <c r="T6" s="1">
+        <f>B6</f>
+        <v>6569.2229084712799</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7312.9919511587104</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6765.7074956026599</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5267.9590405498002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6197.67</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="29">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6318.8166999999903</v>
+      </c>
+      <c r="R7" s="1">
+        <f>B7</f>
+        <v>6765.7074956026599</v>
+      </c>
+      <c r="T7" s="1">
+        <f>B7</f>
+        <v>6765.7074956026599</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2321.7917307552598</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5337.7705203465803</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3086.9910305235298</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2002.3299999999899</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="29">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2909.2190999999898</v>
+      </c>
+      <c r="R8" s="1">
+        <f>A8</f>
+        <v>2321.7917307552598</v>
+      </c>
+      <c r="T8" s="1">
+        <f>A8</f>
+        <v>2321.7917307552598</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6271.7410209617001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7665.3211543489297</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6734.1189286723302</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6404.6499999999896</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="29">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6608.1653999999999</v>
+      </c>
+      <c r="R9" s="1">
+        <f>A9</f>
+        <v>6271.7410209617001</v>
+      </c>
+      <c r="T9" s="1">
+        <f>A9</f>
+        <v>6271.7410209617001</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4292.4350947304101</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5838.0376563414502</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6088.4689123418502</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5488.3699999999899</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="29">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5672.3033999999898</v>
+      </c>
+      <c r="R10" s="1">
+        <f>B10</f>
+        <v>5838.0376563414502</v>
+      </c>
+      <c r="T10" s="1">
+        <f>B10</f>
+        <v>5838.0376563414502</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4335.7646168273704</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3917.26018866712</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4580.9866555745102</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4862.78999999999</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5082.7786999999898</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R16" si="0">C11</f>
+        <v>4580.9866555745102</v>
+      </c>
+      <c r="T11" s="1">
+        <f>C11</f>
+        <v>4580.9866555745102</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="9">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3385.3566977987998</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2082.6203403721702</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1907.2379413761</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1871.63</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="29">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2664.1696000000002</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>1907.2379413761</v>
+      </c>
+      <c r="T12" s="1">
+        <f>A12</f>
+        <v>3385.3566977987998</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4937.0950891940302</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2837.9894689287298</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3781.3853782536198</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3813.9499999999898</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4313.9525999999996</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>3781.3853782536198</v>
+      </c>
+      <c r="T13" s="1">
+        <f>A13</f>
+        <v>4937.0950891940302</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>1077.5079794360699</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3935.5988722078901</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1525.00183891816</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2072.09</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="29">
+        <v>2</v>
+      </c>
+      <c r="O14" s="19">
+        <v>2820.73</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="0"/>
+        <v>1525.00183891816</v>
+      </c>
+      <c r="T14" s="19">
+        <f>C14</f>
+        <v>1525.00183891816</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="20">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4143.0741876509701</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3620.2900743140699</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4204.7662199501001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4744.1899999999896</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4644.9980999999898</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>4204.7662199501001</v>
+      </c>
+      <c r="T15" s="1">
+        <f>A15</f>
+        <v>4143.0741876509701</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="42"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9107.4537972519593</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1758.44288544298</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4731.5146558816496</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5651.1599999999899</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5270.8361999999897</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>4731.5146558816496</v>
+      </c>
+      <c r="T16" s="1">
+        <f>C16</f>
+        <v>4731.5146558816496</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="9">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2343.0437542326099</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6951.8448583106101</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3632.4614770663902</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5308.14</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3979.4177</v>
+      </c>
+      <c r="R17" s="1">
+        <f>B17</f>
+        <v>6951.8448583106101</v>
+      </c>
+      <c r="T17" s="1">
+        <f>A17</f>
+        <v>2343.0437542326099</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5583.9039428467904</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4883.1686649609201</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2380.2905054134899</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2604.65</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3996.4530999999902</v>
+      </c>
+      <c r="R18" s="1">
+        <f>C18</f>
+        <v>2380.2905054134899</v>
+      </c>
+      <c r="T18" s="1">
+        <f>C18</f>
+        <v>2380.2905054134899</v>
+      </c>
+      <c r="U18" s="4">
+        <v>2</v>
+      </c>
+      <c r="V18" s="9">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6670.7104169838603</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4716.6021128981301</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6323.0653271000401</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5839.5299999999897</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5956.2730999999903</v>
+      </c>
+      <c r="R19" s="1">
+        <f>C19</f>
+        <v>6323.0653271000401</v>
+      </c>
+      <c r="T19" s="1">
+        <f>C19</f>
+        <v>6323.0653271000401</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="9">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5172.9844954996397</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3480.4202831889102</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4251.6383662262297</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5469.77</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4383.1268</v>
+      </c>
+      <c r="R20" s="1">
+        <f>A20</f>
+        <v>5172.9844954996397</v>
+      </c>
+      <c r="T20" s="1">
+        <f>B20</f>
+        <v>3480.4202831889102</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5525.3223086419803</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6674.0016335477403</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6742.7118226780003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7532.56</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="1">
+        <v>6971.2614999999896</v>
+      </c>
+      <c r="R21" s="1">
+        <f>C21</f>
+        <v>6742.7118226780003</v>
+      </c>
+      <c r="T21" s="1">
+        <f>C21</f>
+        <v>6742.7118226780003</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="9">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3320.5325653017399</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3826.74622788021</v>
+      </c>
+      <c r="C22" s="41">
+        <v>4344.0262369024904</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3931.4582999999898</v>
+      </c>
+      <c r="R22" s="1">
+        <f>B22</f>
+        <v>3826.74622788021</v>
+      </c>
+      <c r="T22" s="1">
+        <f>B22</f>
+        <v>3826.74622788021</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="9">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>3679.7889121578501</v>
+      </c>
+      <c r="B23" s="34">
+        <v>4208.73625245319</v>
+      </c>
+      <c r="C23" s="33">
+        <v>4741.60303418074</v>
+      </c>
+      <c r="D23" s="33">
+        <v>4343.0200000000004</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="33">
+        <v>4147.3023999999996</v>
+      </c>
+      <c r="R23" s="33">
+        <f>B23</f>
+        <v>4208.73625245319</v>
+      </c>
+      <c r="T23" s="33">
+        <f>B23</f>
+        <v>4208.73625245319</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="36">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2758.50123150538</v>
+      </c>
+      <c r="B24" s="41">
+        <v>3393.8719126784999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3592.5807902751399</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3627.9099999999899</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3883.9539</v>
+      </c>
+      <c r="R24" s="1">
+        <f>C24</f>
+        <v>3592.5807902751399</v>
+      </c>
+      <c r="T24" s="1">
+        <f>B24</f>
+        <v>3393.8719126784999</v>
+      </c>
+      <c r="U24" s="12">
+        <v>1</v>
+      </c>
+      <c r="V24" s="9">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <v>5217.3752131917599</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3210.8838120760902</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4239.9313327414402</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3720.9299999999898</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3723.9531000000002</v>
+      </c>
+      <c r="R25" s="1">
+        <f>B25</f>
+        <v>3210.8838120760902</v>
+      </c>
+      <c r="T25" s="1">
+        <f>C25</f>
+        <v>4239.9313327414402</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25" s="9">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8326.0542976848501</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7014.8067013382597</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6352.4320947751303</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6325.5799999999899</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>6052.3594999999996</v>
+      </c>
+      <c r="R26" s="1">
+        <f>C26</f>
+        <v>6352.4320947751303</v>
+      </c>
+      <c r="T26" s="1">
+        <f>C26</f>
+        <v>6352.4320947751303</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2</v>
+      </c>
+      <c r="V26" s="9">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4190.1453417980601</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1634.72579446495</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3830.8472020692002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4081.4</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4101.5811999999996</v>
+      </c>
+      <c r="R27" s="1">
+        <f>A27</f>
+        <v>4190.1453417980601</v>
+      </c>
+      <c r="T27" s="1">
+        <f>A27</f>
+        <v>4190.1453417980601</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4633.7732493764497</v>
+      </c>
+      <c r="B28" s="41">
+        <v>2072.75308594425</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5993.1442458675701</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6613.9499999999898</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="1">
+        <v>6344.0928999999996</v>
+      </c>
+      <c r="R28" s="1">
+        <f>C28</f>
+        <v>5993.1442458675701</v>
+      </c>
+      <c r="T28" s="1">
+        <f>A28</f>
+        <v>4633.7732493764497</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4703.3666468907004</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3325.5483640784801</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5123.6601038449098</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3906.98</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3599.3085999999998</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" ref="R29:R30" si="1">B29</f>
+        <v>3325.5483640784801</v>
+      </c>
+      <c r="T29" s="1">
+        <f>C29</f>
+        <v>5123.6601038449098</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6240.0242393541903</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2780.97927557914</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6419.5726058194696</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2637.21</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3398.6599000000001</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="1"/>
+        <v>2780.97927557914</v>
+      </c>
+      <c r="T30" s="1">
+        <f>B30</f>
+        <v>2780.97927557914</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="9">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5211.5526765047898</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6236.77393082051</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5659.5189707400996</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5767.4399999999896</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5373.6280999999999</v>
+      </c>
+      <c r="R31" s="1">
+        <f>C31</f>
+        <v>5659.5189707400996</v>
+      </c>
+      <c r="T31" s="1">
+        <f>B31</f>
+        <v>6236.77393082051</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3705.00329550898</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4751.0245843552402</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4680.2137556222597</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3813.9499999999898</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4878.8353999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <f>A32</f>
+        <v>3705.00329550898</v>
+      </c>
+      <c r="T32" s="1">
+        <f>A32</f>
+        <v>3705.00329550898</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>5472.1789288190403</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3993.1624044402402</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5787.6065555923096</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5860.47</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>5820.1148999999896</v>
+      </c>
+      <c r="R33" s="1">
+        <f>C33</f>
+        <v>5787.6065555923096</v>
+      </c>
+      <c r="T33" s="1">
+        <f>A33</f>
+        <v>5472.1789288190403</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>6406.0584854287799</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5204.6104455446302</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3957.8007659915602</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4651.1599999999899</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4767.0959999999905</v>
+      </c>
+      <c r="R34" s="1">
+        <f>B34</f>
+        <v>5204.6104455446302</v>
+      </c>
+      <c r="T34" s="1">
+        <f>C34</f>
+        <v>3957.8007659915602</v>
+      </c>
+      <c r="U34" s="12">
+        <v>2</v>
+      </c>
+      <c r="V34" s="9">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4909.5099183223601</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6175.8300123699901</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3976.8402301175802</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4958.1400000000003</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5192.8020999999999</v>
+      </c>
+      <c r="R35" s="1">
+        <f>A35</f>
+        <v>4909.5099183223601</v>
+      </c>
+      <c r="T35" s="1">
+        <f>A35</f>
+        <v>4909.5099183223601</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>5221.3981366570297</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4679.7918575531403</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5159.60192188578</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4988.3699999999899</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4633.3273999999901</v>
+      </c>
+      <c r="R36" s="1">
+        <f>C36</f>
+        <v>5159.60192188578</v>
+      </c>
+      <c r="T36" s="1">
+        <f>A36</f>
+        <v>5221.3981366570297</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3773.57158758069</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3451.5470626083802</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3809.4593567838601</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4290.6999999999898</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3973.4161999999901</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" ref="R37:R38" si="2">C37</f>
+        <v>3809.4593567838601</v>
+      </c>
+      <c r="T37" s="1">
+        <f>C37</f>
+        <v>3809.4593567838601</v>
+      </c>
+      <c r="U37" s="4">
+        <v>2</v>
+      </c>
+      <c r="V37" s="9">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4290.8951005783201</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3084.4631293568</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3395.5871258614402</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3377.9099999999899</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4017.80349999999</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="2"/>
+        <v>3395.5871258614402</v>
+      </c>
+      <c r="T38" s="1">
+        <f>C38</f>
+        <v>3395.5871258614402</v>
+      </c>
+      <c r="U38" s="4">
+        <v>2</v>
+      </c>
+      <c r="V38" s="9">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3695.0255748029199</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4227.3527676185204</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4185.1537008953401</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4279.0699999999897</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>4050.2899000000002</v>
+      </c>
+      <c r="R39" s="1">
+        <f>B39</f>
+        <v>4227.3527676185204</v>
+      </c>
+      <c r="T39" s="1">
+        <f>B39</f>
+        <v>4227.3527676185204</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="9">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>5068.2797803412604</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6268.6475929051703</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5852.0656436965201</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5339.5299999999897</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1">
+        <v>5065.5105999999996</v>
+      </c>
+      <c r="R40" s="1">
+        <f>A40</f>
+        <v>5068.2797803412604</v>
+      </c>
+      <c r="T40" s="1">
+        <f>B40</f>
+        <v>6268.6475929051703</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>5296.4780529981199</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5388.9154171760201</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2639.360348357</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5018.6000000000004</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>4353.1985000000004</v>
+      </c>
+      <c r="R41" s="1">
+        <f>A41</f>
+        <v>5296.4780529981199</v>
+      </c>
+      <c r="T41" s="1">
+        <f>A41</f>
+        <v>5296.4780529981199</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9096E856-FDDF-459B-B0AA-3494E7EB97E1}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,9 +5137,10 @@
     <col min="13" max="13" width="17.85546875" style="29" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +5169,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6330.9061903686097</v>
       </c>
@@ -1662,8 +5211,15 @@
         <f>A2</f>
         <v>6330.9061903686097</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="1">
+        <f>A2</f>
+        <v>6330.9061903686097</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8895.1427797874603</v>
       </c>
@@ -1705,8 +5261,15 @@
         <f>B3</f>
         <v>6318.4389068741002</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="1">
+        <f>B3</f>
+        <v>6318.4389068741002</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5441.1171673525796</v>
       </c>
@@ -1748,8 +5311,15 @@
         <f>A4</f>
         <v>5441.1171673525796</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="1">
+        <f>A4</f>
+        <v>5441.1171673525796</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4891.5961116284097</v>
       </c>
@@ -1791,8 +5361,15 @@
         <f>B5</f>
         <v>5404.9311849320402</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <f>B5</f>
+        <v>5404.9311849320402</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4646.8926246969704</v>
       </c>
@@ -1834,8 +5411,15 @@
         <f>B6</f>
         <v>6569.2229084712799</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <f>B6</f>
+        <v>6569.2229084712799</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7312.9919511587104</v>
       </c>
@@ -1877,8 +5461,15 @@
         <f>B7</f>
         <v>6765.7074956026599</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <f>B7</f>
+        <v>6765.7074956026599</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2321.7917307552598</v>
       </c>
@@ -1920,8 +5511,15 @@
         <f>A8</f>
         <v>2321.7917307552598</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <f>A8</f>
+        <v>2321.7917307552598</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6271.7410209617001</v>
       </c>
@@ -1963,8 +5561,15 @@
         <f>A9</f>
         <v>6271.7410209617001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <f>A9</f>
+        <v>6271.7410209617001</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4292.4350947304101</v>
       </c>
@@ -2006,8 +5611,15 @@
         <f>B10</f>
         <v>5838.0376563414502</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <f>B10</f>
+        <v>5838.0376563414502</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4335.7646168273704</v>
       </c>
@@ -2049,8 +5661,15 @@
         <f t="shared" ref="Q11:Q16" si="1">C11</f>
         <v>4580.9866555745102</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <f>C11</f>
+        <v>4580.9866555745102</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3385.3566977987998</v>
       </c>
@@ -2092,8 +5711,15 @@
         <f t="shared" si="1"/>
         <v>1907.2379413761</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <f>A12</f>
+        <v>3385.3566977987998</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4937.0950891940302</v>
       </c>
@@ -2135,8 +5761,15 @@
         <f t="shared" si="1"/>
         <v>3781.3853782536198</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <f>A13</f>
+        <v>4937.0950891940302</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>1077.5079794360699</v>
       </c>
@@ -2178,8 +5811,15 @@
         <f t="shared" si="1"/>
         <v>1525.00183891816</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="19">
+        <f>C14</f>
+        <v>1525.00183891816</v>
+      </c>
+      <c r="T14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4143.0741876509701</v>
       </c>
@@ -2221,8 +5861,15 @@
         <f t="shared" si="1"/>
         <v>4204.7662199501001</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <f>A15</f>
+        <v>4143.0741876509701</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9107.4537972519593</v>
       </c>
@@ -2264,8 +5911,15 @@
         <f t="shared" si="1"/>
         <v>4731.5146558816496</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <f>C16</f>
+        <v>4731.5146558816496</v>
+      </c>
+      <c r="T16" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2343.0437542326099</v>
       </c>
@@ -2304,8 +5958,15 @@
         <f>B17</f>
         <v>6951.8448583106101</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <f>A17</f>
+        <v>2343.0437542326099</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5583.9039428467904</v>
       </c>
@@ -2344,8 +6005,15 @@
         <f>C18</f>
         <v>2380.2905054134899</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <f>C18</f>
+        <v>2380.2905054134899</v>
+      </c>
+      <c r="T18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6670.7104169838603</v>
       </c>
@@ -2384,8 +6052,15 @@
         <f>C19</f>
         <v>6323.0653271000401</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <f>C19</f>
+        <v>6323.0653271000401</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>5172.9844954996397</v>
       </c>
@@ -2424,8 +6099,15 @@
         <f>A20</f>
         <v>5172.9844954996397</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <f>B20</f>
+        <v>3480.4202831889102</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5525.3223086419803</v>
       </c>
@@ -2464,8 +6146,15 @@
         <f>C21</f>
         <v>6742.7118226780003</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21" s="1">
+        <f>C21</f>
+        <v>6742.7118226780003</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3320.5325653017399</v>
       </c>
@@ -2504,55 +6193,70 @@
         <f>C22</f>
         <v>4344.0262369024904</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="S22" s="1">
+        <f>B22</f>
+        <v>3826.74622788021</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>3679.7889121578501</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="34">
         <v>4208.73625245319</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="33">
         <v>4741.60303418074</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="33">
         <v>4343.0200000000004</v>
       </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="40"/>
+      <c r="N23" s="33">
         <f t="shared" si="0"/>
         <v>4210.042732930593</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="33">
         <f>B23</f>
         <v>4208.73625245319</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23" s="33">
+        <f>B23</f>
+        <v>4208.73625245319</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2758.50123150538</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="41">
         <v>3393.8719126784999</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>3592.5807902751399</v>
       </c>
       <c r="D24" s="1">
@@ -2584,8 +6288,15 @@
         <f>B24</f>
         <v>3393.8719126784999</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <f>B24</f>
+        <v>3393.8719126784999</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5217.3752131917599</v>
       </c>
@@ -2624,8 +6335,15 @@
         <f>A25</f>
         <v>5217.3752131917599</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S25" s="1">
+        <f>C25</f>
+        <v>4239.9313327414402</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8326.0542976848501</v>
       </c>
@@ -2664,8 +6382,15 @@
         <f>C26</f>
         <v>6352.4320947751303</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" s="1">
+        <f>C26</f>
+        <v>6352.4320947751303</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4190.1453417980601</v>
       </c>
@@ -2704,8 +6429,15 @@
         <f>A27</f>
         <v>4190.1453417980601</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27" s="1">
+        <f>A27</f>
+        <v>4190.1453417980601</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4633.7732493764497</v>
       </c>
@@ -2744,8 +6476,15 @@
         <f>B28</f>
         <v>2072.75308594425</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28" s="1">
+        <f>A28</f>
+        <v>4633.7732493764497</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4703.3666468907004</v>
       </c>
@@ -2784,8 +6523,15 @@
         <f t="shared" ref="Q29:Q30" si="2">B29</f>
         <v>3325.5483640784801</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29" s="1">
+        <f>C29</f>
+        <v>5123.6601038449098</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6240.0242393541903</v>
       </c>
@@ -2824,8 +6570,15 @@
         <f t="shared" si="2"/>
         <v>2780.97927557914</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <f>B30</f>
+        <v>2780.97927557914</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5211.5526765047898</v>
       </c>
@@ -2864,8 +6617,15 @@
         <f>C31</f>
         <v>5659.5189707400996</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31" s="1">
+        <f>B31</f>
+        <v>6236.77393082051</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3705.00329550898</v>
       </c>
@@ -2904,8 +6664,15 @@
         <f>A32</f>
         <v>3705.00329550898</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <f>A32</f>
+        <v>3705.00329550898</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5472.1789288190403</v>
       </c>
@@ -2944,8 +6711,15 @@
         <f>C33</f>
         <v>5787.6065555923096</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <f>A33</f>
+        <v>5472.1789288190403</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6406.0584854287799</v>
       </c>
@@ -2984,8 +6758,15 @@
         <f>B34</f>
         <v>5204.6104455446302</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <f>C34</f>
+        <v>3957.8007659915602</v>
+      </c>
+      <c r="T34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4909.5099183223601</v>
       </c>
@@ -3024,8 +6805,15 @@
         <f>A35</f>
         <v>4909.5099183223601</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <f>A35</f>
+        <v>4909.5099183223601</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5221.3981366570297</v>
       </c>
@@ -3064,8 +6852,15 @@
         <f>C36</f>
         <v>5159.60192188578</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <f>A36</f>
+        <v>5221.3981366570297</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3773.57158758069</v>
       </c>
@@ -3104,8 +6899,15 @@
         <f t="shared" ref="Q37:Q38" si="3">C37</f>
         <v>3809.4593567838601</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <f>C37</f>
+        <v>3809.4593567838601</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4290.8951005783201</v>
       </c>
@@ -3144,8 +6946,15 @@
         <f t="shared" si="3"/>
         <v>3395.5871258614402</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <f>C38</f>
+        <v>3395.5871258614402</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3695.0255748029199</v>
       </c>
@@ -3184,8 +6993,15 @@
         <f>B39</f>
         <v>4227.3527676185204</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
+        <f>B39</f>
+        <v>4227.3527676185204</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5068.2797803412604</v>
       </c>
@@ -3224,8 +7040,15 @@
         <f>A40</f>
         <v>5068.2797803412604</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
+        <f>B40</f>
+        <v>6268.6475929051703</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5296.4780529981199</v>
       </c>
@@ -3263,6 +7086,13 @@
       <c r="Q41" s="1">
         <f>A41</f>
         <v>5296.4780529981199</v>
+      </c>
+      <c r="S41" s="1">
+        <f>A41</f>
+        <v>5296.4780529981199</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3271,12 +7101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1862DB9-5D85-4D8F-B57B-CC90E43E671B}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,9 +7117,10 @@
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="26"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +7137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3331,8 +7162,11 @@
       <c r="I2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3357,8 +7191,11 @@
       <c r="I3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3383,8 +7220,11 @@
       <c r="I4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3409,8 +7249,11 @@
       <c r="I5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3435,8 +7278,11 @@
       <c r="I6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3461,8 +7307,11 @@
       <c r="I7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +7336,11 @@
       <c r="I8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -3513,8 +7365,11 @@
       <c r="I9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3527,7 +7382,7 @@
       <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -3539,8 +7394,11 @@
       <c r="I10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3553,7 +7411,7 @@
       <c r="D11" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="31">
         <v>0</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -3565,8 +7423,11 @@
       <c r="I11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3591,8 +7452,11 @@
       <c r="I12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3617,8 +7481,11 @@
       <c r="I13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3643,8 +7510,11 @@
       <c r="I14" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3669,8 +7539,11 @@
       <c r="I15" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
@@ -3695,8 +7568,11 @@
       <c r="I16" s="17" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3721,8 +7597,11 @@
       <c r="I17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3747,8 +7626,11 @@
       <c r="I18" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3773,8 +7655,11 @@
       <c r="I19" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3799,8 +7684,11 @@
       <c r="I20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3825,8 +7713,11 @@
       <c r="I21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3851,8 +7742,11 @@
       <c r="I22" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3877,8 +7771,11 @@
       <c r="I23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3903,8 +7800,11 @@
       <c r="I24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3929,8 +7829,11 @@
       <c r="I25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3955,8 +7858,11 @@
       <c r="I26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -3981,8 +7887,11 @@
       <c r="I27" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4007,8 +7916,11 @@
       <c r="I28" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -4033,8 +7945,11 @@
       <c r="I29" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4059,8 +7974,11 @@
       <c r="I30" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4085,8 +8003,11 @@
       <c r="I31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -4114,8 +8035,11 @@
       <c r="J32">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4140,8 +8064,11 @@
       <c r="I33" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4166,8 +8093,11 @@
       <c r="I34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -4192,8 +8122,11 @@
       <c r="I35" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
@@ -4218,8 +8151,11 @@
       <c r="I36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -4244,8 +8180,11 @@
       <c r="I37" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4270,8 +8209,11 @@
       <c r="I38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -4296,8 +8238,11 @@
       <c r="I39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
@@ -4322,8 +8267,11 @@
       <c r="I40" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
@@ -4347,6 +8295,9 @@
       </c>
       <c r="I41">
         <v>5739.8735533682002</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +8306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9C66C8-12DF-44F6-B8C1-D12DECB775C3}">
   <dimension ref="C4"/>
   <sheetViews>
@@ -4375,11 +8326,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ECA6D6-73B9-49F7-853A-7181F068BA57}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -4390,11 +8341,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80158E74-8195-4CAC-B089-55ACA1D220FD}">
   <dimension ref="D3:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4776,11 +8727,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973B53BC-4904-430E-9040-A7F09CF5FB46}">
   <dimension ref="E6:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
+    <sheetView topLeftCell="E27" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
